--- a/校赛建模/时间表.xlsx
+++ b/校赛建模/时间表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99902E07-DE45-4EA6-85B5-385031ADE6C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3105FA1-B1F4-4C58-9B0E-052FB90AE0B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,15 +37,35 @@
     <t>总支付数量</t>
   </si>
   <si>
-    <t>早高峰支付数量（7-9）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚高峰支付数量（17-19）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每天乘车人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段0-1的乘车人次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段1-2的乘车人次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段2-3的乘车人次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段3-4的乘车人次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段4-5的乘车人次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…直到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段23-24的乘车人次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,22 +391,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,6 +430,21 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
